--- a/schema/Tramita/issues_metadados_tramita.xlsx
+++ b/schema/Tramita/issues_metadados_tramita.xlsx
@@ -89101,7 +89101,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Total number of cells in schema</t>
+          <t>Total number of cells in schema (sum of columns x rows for each table)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -92099,7 +92099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92148,6 +92148,26 @@
           <t>limit</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_VALUE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_SOURCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_CONFIDENCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_DDL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -92174,6 +92194,24 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>VW_DOCUMENTOS_CERTIFICADO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.VW_DOCUMENTOS_CERTIFICADOS RENAME TO VW_DOCUMENTOS_CERTIFICADO;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -92204,6 +92242,24 @@
       <c r="H3" t="n">
         <v>30</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>VW_ASSINATURA_SERVIDOR_PRO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO RENAME TO VW_ASSINATURA_SERVIDOR_PRO;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -92234,6 +92290,24 @@
       <c r="H4" t="n">
         <v>30</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>VW_PERMANENCIA_SERVIDOR_PRO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO RENAME TO VW_PERMANENCIA_SERVIDOR_PRO;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -92264,6 +92338,24 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASPECTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -92294,6 +92386,24 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASPECTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -92324,6 +92434,24 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSINADOR_FAVORITO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -92354,6 +92482,24 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSINADOR_FAVORITO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -92384,6 +92530,24 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSINATURA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -92414,6 +92578,24 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSINATURA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -92444,6 +92626,24 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_ASS_TIPO_DOC_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -92474,6 +92674,24 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_ASS_TIPO_DOC_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -92504,6 +92722,24 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_ATENDENTE_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -92534,6 +92770,24 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_ATENDENTE_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -92564,6 +92818,24 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -92594,6 +92866,24 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -92624,6 +92914,24 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_CATEG_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -92654,6 +92962,24 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_CATEG_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -92684,6 +93010,24 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_FASE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -92714,6 +93058,24 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_FASE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -92744,6 +93106,24 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_LOTACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -92774,6 +93154,24 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSC_REV</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_LOTACAO_AUD RENAME COLUMN REV TO DSC_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -92804,6 +93202,24 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_METADADO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -92834,6 +93250,24 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_METADADO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -92864,6 +93298,24 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_MOTIVO_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -92894,6 +93346,24 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_MOTIVO_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -92924,6 +93394,24 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -92954,6 +93442,24 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -92984,6 +93490,24 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_SITUACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -93014,6 +93538,24 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_SITUACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -93044,6 +93586,24 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_TIPO_DOC_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -93074,6 +93634,24 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ASSUNTO_TIPO_DOC_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -93104,6 +93682,24 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ATENDENTE_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -93134,6 +93730,24 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ATENDENTE_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -93164,6 +93778,24 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.AVISO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -93194,6 +93826,24 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.AVISO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -93224,6 +93874,24 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CANCELAR_PEDIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -93254,6 +93922,24 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CANCELAR_PEDIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -93284,6 +93970,24 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>NUM_ORDEM_DOC_TRAMITA</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.COATE_TRAMITA RENAME COLUMN ORDEM_DOC_TRAMITA TO NUM_ORDEM_DOC_TRAMITA;</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -93314,6 +94018,24 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONSULTA_PUBLICA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -93344,6 +94066,24 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONSULTA_PUBLICA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -93374,6 +94114,24 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONTRIBUINTE_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -93404,6 +94162,24 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONTRIBUINTE_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -93434,6 +94210,24 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONTRIBUINTE_TMP_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -93464,6 +94258,24 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.CONTRIBUINTE_TMP_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -93494,6 +94306,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DAE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -93524,6 +94354,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DAE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -93554,6 +94402,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DOCUMENTO_ASSINATURA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -93584,6 +94450,24 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DOCUMENTO_ASSINATURA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -93614,6 +94498,24 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -93644,6 +94546,24 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -93674,6 +94594,24 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.EMAIL_TEMPLATE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -93704,6 +94642,24 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.EMAIL_TEMPLATE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -93734,6 +94690,24 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.EVENTO_PROCESSO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -93764,6 +94738,24 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NUM_TYPE</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.EVENTO_PROCESSO_AUD RENAME COLUMN REV_TYPE TO NUM_TYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -93794,6 +94786,24 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FASE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -93824,6 +94834,24 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FASE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -93854,6 +94882,24 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FASE_SITUACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -93884,6 +94930,24 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FASE_SITUACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -93914,6 +94978,24 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FISCAL_PREFERENCIA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -93944,6 +95026,24 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.FISCAL_PREFERENCIA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -93974,6 +95074,24 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_ASSUNTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -94004,6 +95122,24 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_ASSUNTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -94034,6 +95170,24 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -94064,6 +95218,24 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -94094,6 +95266,24 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_GRUP_ASSUNTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -94124,6 +95314,24 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_GRUP_ASSUNTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -94154,6 +95362,24 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -94184,6 +95410,24 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.GRUPO_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -94214,6 +95458,24 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.INFORMACAO_FISCAL_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -94244,6 +95506,24 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.INFORMACAO_FISCAL_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -94274,6 +95554,24 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ITEM_NAO_SIMILARIDADE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -94304,6 +95602,24 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.ITEM_NAO_SIMILARIDADE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -94334,6 +95650,24 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_CEXAT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -94364,6 +95698,24 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_CEXAT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -94394,6 +95746,24 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_FAVORITA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -94424,6 +95794,24 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_FAVORITA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -94454,6 +95842,24 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_SECUNDARIA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -94484,6 +95890,24 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.LOTACAO_SECUNDARIA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -94514,6 +95938,24 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -94544,6 +95986,24 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -94574,6 +96034,24 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -94604,6 +96082,24 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -94634,6 +96130,24 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_PROCESSO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -94664,6 +96178,24 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_PROCESSO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -94694,6 +96226,24 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_VALOR_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -94724,6 +96274,24 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.METADADO_VALOR_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -94754,6 +96322,24 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MODELO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -94784,6 +96370,24 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MODELO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -94814,6 +96418,24 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MODULO_PEDIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -94844,6 +96466,24 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MODULO_PEDIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -94874,6 +96514,24 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOTIVO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -94904,6 +96562,24 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOTIVO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -94934,6 +96610,24 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOTIVO_GRUPO_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -94964,6 +96658,24 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOTIVO_GRUPO_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -94994,6 +96706,24 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOVIMENTACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -95024,6 +96754,24 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOVIMENTACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -95054,6 +96802,24 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOVIMENTACAO_USUARIO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -95084,6 +96850,24 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.MOVIMENTACAO_USUARIO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -95114,6 +96898,24 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NOTA_PEDIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -95144,6 +96946,24 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NOTA_PEDIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -95174,6 +96994,24 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NOTIFICACAO_EMAIL_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -95204,6 +97042,24 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NOTIFICACAO_EMAIL_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -95234,6 +97090,24 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NUMERO_DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -95264,6 +97138,24 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NUMERO_DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -95294,6 +97186,24 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NUMERO_DOCUMENTO_DETALHE_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -95324,6 +97234,24 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.NUMERO_DOCUMENTO_DETALHE_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -95354,6 +97282,24 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.OBSERVADOR_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -95384,6 +97330,24 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.OBSERVADOR_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -95414,6 +97378,24 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.OBSERVADOR_NOTIF_EMAIL_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -95444,6 +97426,24 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.OBSERVADOR_NOTIF_EMAIL_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -95474,6 +97474,24 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PARAMETRO_DIVERSO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -95504,6 +97522,24 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PARAMETRO_DIVERSO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -95534,6 +97570,24 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PEDIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -95564,6 +97618,24 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PEDIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -95594,6 +97666,24 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PENDENCIA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -95624,6 +97714,24 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PENDENCIA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -95654,6 +97762,24 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PRAZO_PEDIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -95684,6 +97810,24 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PRAZO_PEDIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -95714,6 +97858,24 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -95744,6 +97906,24 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -95774,6 +97954,24 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -95804,6 +98002,24 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -95834,6 +98050,24 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_MOVIMENTACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -95864,6 +98098,24 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_MOVIMENTACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -95894,6 +98146,24 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_NAO_DISTRIBUIDO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -95924,6 +98194,24 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_NAO_DISTRIBUIDO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -95954,6 +98242,24 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_OBSERVADOR_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -95984,6 +98290,24 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_OBSERVADOR_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -96014,6 +98338,24 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_PROC_DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -96044,6 +98386,24 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.PROCESSO_PROC_DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -96074,6 +98434,24 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.REGIME_ESPECIAL_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -96104,6 +98482,24 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.REGIME_ESPECIAL_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -96134,6 +98530,24 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.REVINFO RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -96164,6 +98578,24 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>NUM_REVTSTMP</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.REVINFO RENAME COLUMN REVTSTMP TO NUM_REVTSTMP;</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -96194,6 +98626,24 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>DSC_TIPO_REVISAO</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.REVINFO RENAME COLUMN TIPO_REVISAO TO DSC_TIPO_REVISAO;</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -96224,6 +98674,24 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.SITUACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -96254,6 +98722,24 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.SITUACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -96284,6 +98770,24 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>NUM_EXIBIR</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TEMPORIZADOR_AUD RENAME COLUMN EXIBIR TO NUM_EXIBIR;</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -96314,6 +98818,24 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>NUM_PRAZO</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TEMPORIZADOR_AUD RENAME COLUMN PRAZO TO NUM_PRAZO;</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -96344,6 +98866,24 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TEMPORIZADOR_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -96374,6 +98914,24 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TEMPORIZADOR_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -96404,6 +98962,24 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_ASPECTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -96434,6 +99010,24 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_ASPECTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -96464,6 +99058,24 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -96494,6 +99106,24 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -96524,6 +99154,24 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_FAVORITO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -96554,6 +99202,24 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_FAVORITO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -96584,6 +99250,24 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_LOTACAO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -96614,6 +99298,24 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_LOTACAO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -96644,6 +99346,24 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_METADADO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -96674,6 +99394,24 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.TIPO_DOCUMENTO_METADADO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -96704,6 +99442,24 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_GRUPO_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -96734,6 +99490,24 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_GRUPO_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -96764,6 +99538,24 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_GRUPO_SANFIT_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -96794,6 +99586,24 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_GRUPO_SANFIT_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -96824,6 +99634,24 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>NUM_REV</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_TRAMITA_AUD RENAME COLUMN REV TO NUM_REV;</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -96854,6 +99682,24 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>NUM_REVTYPE</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.USUARIO_TRAMITA_AUD RENAME COLUMN REVTYPE TO NUM_REVTYPE;</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -96888,6 +99734,24 @@
       <c r="H159" t="n">
         <v>30</v>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>NUM_MATRICULA_RESPONSAVEL_ATUA</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>ALTER TABLE TRAMITA.VW_DOCUMENTOS_CERTIFICADOS RENAME COLUMN NUM_MATRICULA_RESPONSAVEL_ATUAL TO NUM_MATRICULA_RESPONSAVEL_ATUA;</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -96918,6 +99782,24 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Status de assinador secex.</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.ASSINATURA.STA_ASSINADOR_SECEX IS 'Status de assinador secex.';</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -96948,6 +99830,24 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Status de assinador secex.</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.ASSINATURA_AUD.STA_ASSINADOR_SECEX IS 'Status de assinador secex.';</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -96978,6 +99878,24 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Codigo de assunto suite.</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.ASSUNTO.COD_ASSUNTO_SUITE IS 'Codigo de assunto suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -97008,6 +99926,24 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Descricao de observacao.</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.ASSUNTO_AUD.DSC_OBSERVACAO IS 'Descricao de observacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -97038,6 +99974,24 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Codigo de assunto suite.</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.ASSUNTO_AUD.COD_ASSUNTO_SUITE IS 'Codigo de assunto suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -97068,6 +100022,24 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Descricao de ordem doc tramita.</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.ORDEM_DOC_TRAMITA IS 'Descricao de ordem doc tramita.';</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -97098,6 +100070,24 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Descricao de assunto.</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DSC_ASSUNTO IS 'Descricao de assunto.';</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -97128,6 +100118,24 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Sequencia de documento.</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.SEQ_DOCUMENTO IS 'Sequencia de documento.';</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -97158,6 +100166,24 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Valor de metadado.</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.VLR_METADADO IS 'Valor de metadado.';</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -97188,6 +100214,24 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Nome de metadado.</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.NOM_METADADO IS 'Nome de metadado.';</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -97218,6 +100262,24 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Descricao de identificacao.</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DSC_IDENTIFICACAO IS 'Descricao de identificacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -97248,6 +100310,24 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Descricao de categoria.</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DSC_CATEGORIA IS 'Descricao de categoria.';</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -97278,6 +100358,24 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Sequencia de metadado valor.</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.SEQ_METADADO_VALOR IS 'Sequencia de metadado valor.';</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -97308,6 +100406,24 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Sequencia de sistema vipro.</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.SEQ_SISTEMA_VIPRO IS 'Sequencia de sistema vipro.';</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -97338,6 +100454,24 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Data de cadastro.</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DAT_CADASTRO IS 'Data de cadastro.';</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -97368,6 +100502,24 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Data de finalizacao.</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DAT_FINALIZACAO IS 'Data de finalizacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -97398,6 +100550,24 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Status de situacao.</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.STA_SITUACAO IS 'Status de situacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -97428,6 +100598,24 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Descricao de situacao.</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DSC_SITUACAO IS 'Descricao de situacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -97458,6 +100646,24 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Descricao de cpf autor.</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.DSC_CPF_AUTOR IS 'Descricao de cpf autor.';</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -97488,6 +100694,24 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Codigo de usu encerramento.</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.COATE_TRAMITA.COD_USU_ENCERRAMENTO IS 'Codigo de usu encerramento.';</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -97518,6 +100742,24 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Descricao de rev.</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.CONSULTA_PUBLICA_AUD.REV IS 'Descricao de rev.';</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -97548,6 +100790,24 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Descricao de revtype.</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.CONSULTA_PUBLICA_AUD.REVTYPE IS 'Descricao de revtype.';</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -97578,6 +100838,24 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Numero de ordem.</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.DOCUMENTO.NUM_ORDEM IS 'Numero de ordem.';</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -97608,6 +100886,24 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Status de exibir apensados.</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.DOCUMENTO.STA_EXIBIR_APENSADOS IS 'Status de exibir apensados.';</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -97638,6 +100934,24 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Numero de ordem.</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.DOCUMENTO_AUD.NUM_ORDEM IS 'Numero de ordem.';</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -97668,6 +100982,24 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Status de exibir apensados.</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.DOCUMENTO_AUD.STA_EXIBIR_APENSADOS IS 'Status de exibir apensados.';</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -97698,6 +101030,24 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Status de validar qtd.</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.METADADO.STA_VALIDAR_QTD IS 'Status de validar qtd.';</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -97728,6 +101078,24 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Status de validar qtd.</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.METADADO_AUD.STA_VALIDAR_QTD IS 'Status de validar qtd.';</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -97758,6 +101126,24 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Data de carga etl.</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.METADADO_VALOR.DAT_CARGA_ETL IS 'Data de carga etl.';</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -97788,6 +101174,24 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Codigo de orgao suite.</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PEDIDO.COD_ORGAO_SUITE IS 'Codigo de orgao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -97818,6 +101222,24 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Numero de digito verifica suite.</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PEDIDO.NUM_DIGITO_VERIFICA_SUITE IS 'Numero de digito verifica suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -97848,6 +101270,24 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Codigo de orgao suite.</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PEDIDO_AUD.COD_ORGAO_SUITE IS 'Codigo de orgao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -97878,6 +101318,24 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Numero de digito verifica suite.</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PEDIDO_AUD.NUM_DIGITO_VERIFICA_SUITE IS 'Numero de digito verifica suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -97908,6 +101366,24 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Status de tipo prazo.</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PRAZO_PEDIDO.STA_TIPO_PRAZO IS 'Status de tipo prazo.';</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -97938,6 +101414,24 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Status de tipo prazo.</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PRAZO_PEDIDO_AUD.STA_TIPO_PRAZO IS 'Status de tipo prazo.';</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -97968,6 +101462,24 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Sequencia de movimentacao.</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO.SEQ_MOVIMENTACAO IS 'Sequencia de movimentacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -97998,6 +101510,24 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Codigo de orgao suite.</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO.COD_ORGAO_SUITE IS 'Codigo de orgao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -98028,6 +101558,24 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Numero de digito verifica suite.</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO.NUM_DIGITO_VERIFICA_SUITE IS 'Numero de digito verifica suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -98058,6 +101606,24 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Numero de classificacao paidegua.</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO.NUM_CLASSIFICACAO_PAIDEGUA IS 'Numero de classificacao paidegua.';</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -98088,6 +101654,24 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Sequencia de movimentacao.</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO_AUD.SEQ_MOVIMENTACAO IS 'Sequencia de movimentacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -98118,6 +101702,24 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Numero de classificacao paidegua.</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO_AUD.NUM_CLASSIFICACAO_PAIDEGUA IS 'Numero de classificacao paidegua.';</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -98148,6 +101750,24 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Codigo de orgao suite.</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO_AUD.COD_ORGAO_SUITE IS 'Codigo de orgao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -98178,6 +101798,24 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Numero de digito verifica suite.</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.PROCESSO_AUD.NUM_DIGITO_VERIFICA_SUITE IS 'Numero de digito verifica suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -98208,6 +101846,24 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Descricao de situacao suite.</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.SITUACAO.DSC_SITUACAO_SUITE IS 'Descricao de situacao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -98238,6 +101894,24 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Descricao de situacao suite.</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.SITUACAO_AUD.DSC_SITUACAO_SUITE IS 'Descricao de situacao suite.';</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -98268,6 +101942,24 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Sequencia de temporizador.</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR.SEQ_TEMPORIZADOR IS 'Sequencia de temporizador.';</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -98298,6 +101990,24 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Sequencia de assunto.</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR.SEQ_ASSUNTO IS 'Sequencia de assunto.';</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -98328,6 +102038,24 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Sequencia de situacao.</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR.SEQ_SITUACAO IS 'Sequencia de situacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -98358,6 +102086,24 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Status de exibir.</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR.STA_EXIBIR IS 'Status de exibir.';</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -98388,6 +102134,24 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Numero de prazo.</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR.NUM_PRAZO IS 'Numero de prazo.';</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -98418,6 +102182,24 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Sequencia de temporizador.</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.SEQ_TEMPORIZADOR IS 'Sequencia de temporizador.';</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -98448,6 +102230,24 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Sequencia de assunto.</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.SEQ_ASSUNTO IS 'Sequencia de assunto.';</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -98478,6 +102278,24 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Sequencia de situacao.</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.SEQ_SITUACAO IS 'Sequencia de situacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -98508,6 +102326,24 @@
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Descricao de exibir.</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.EXIBIR IS 'Descricao de exibir.';</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -98538,6 +102374,24 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Descricao de prazo.</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.PRAZO IS 'Descricao de prazo.';</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -98568,6 +102422,24 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Descricao de revtype.</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.TEMPORIZADOR_AUD.REVTYPE IS 'Descricao de revtype.';</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -98598,6 +102470,24 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Numero de identificacao.</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO.NUM_IDENTIFICACAO IS 'Numero de identificacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -98628,6 +102518,24 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Tipo de documento.</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO.TIP_DOCUMENTO IS 'Tipo de documento.';</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -98658,6 +102566,24 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Numero de mat assinatura.</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO.NUM_MAT_ASSINATURA IS 'Numero de mat assinatura.';</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -98688,6 +102614,24 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Nome de usuario assinatura.</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO.NOM_USUARIO_ASSINATURA IS 'Nome de usuario assinatura.';</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -98718,6 +102662,24 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Data de assinatura.</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_ASSINATURA_SERVIDOR_PROCESSO.DAT_ASSINATURA IS 'Data de assinatura.';</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -98748,6 +102710,24 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Sequencia de processo.</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.SEQ_PROCESSO IS 'Sequencia de processo.';</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -98778,6 +102758,24 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Numero de processo.</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.NUM_PROCESSO IS 'Numero de processo.';</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -98808,6 +102806,24 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Data de criacao processo.</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DAT_CRIACAO_PROCESSO IS 'Data de criacao processo.';</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -98838,6 +102854,24 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Numero de documento autor.</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.NUM_DOCUMENTO_AUTOR IS 'Numero de documento autor.';</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -98868,6 +102902,24 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Numero de documento representante.</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.NUM_DOCUMENTO_REPRESENTANTE IS 'Numero de documento representante.';</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -98898,6 +102950,24 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Codigo de lotacao atual.</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.COD_LOTACAO_ATUAL IS 'Codigo de lotacao atual.';</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -98928,6 +102998,24 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Descricao de orgao atual.</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DSC_ORGAO_ATUAL IS 'Descricao de orgao atual.';</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -98958,6 +103046,24 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Descricao de sigla orgao atual.</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DSC_SIGLA_ORGAO_ATUAL IS 'Descricao de sigla orgao atual.';</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -98988,6 +103094,24 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Numero de matricula responsavel atual.</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.NUM_MATRICULA_RESPONSAVEL_ATUAL IS 'Numero de matricula responsavel atual.';</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -99018,6 +103142,24 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Descricao de situacao.</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DSC_SITUACAO IS 'Descricao de situacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -99048,6 +103190,24 @@
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Descricao de tipo arquivamento.</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DSC_TIPO_ARQUIVAMENTO IS 'Descricao de tipo arquivamento.';</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -99078,6 +103238,24 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Numero de certificado.</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.NUM_CERTIFICADO IS 'Numero de certificado.';</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -99108,6 +103286,24 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Data de ultima assinatura.</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_DOCUMENTOS_CERTIFICADOS.DAT_ULTIMA_ASSINATURA IS 'Data de ultima assinatura.';</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -99138,6 +103334,24 @@
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Numero de identificacao.</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.NUM_IDENTIFICACAO IS 'Numero de identificacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -99168,6 +103382,24 @@
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Nome de sig org movimentacao.</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.NOM_SIG_ORG_MOVIMENTACAO IS 'Nome de sig org movimentacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -99198,6 +103430,24 @@
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Numero de mat usu responsavel.</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.NUM_MAT_USU_RESPONSAVEL IS 'Numero de mat usu responsavel.';</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -99228,6 +103478,24 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Nome de usuario responsavel.</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.NOM_USUARIO_RESPONSAVEL IS 'Nome de usuario responsavel.';</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -99258,6 +103526,24 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Data de movimentacao.</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.DAT_MOVIMENTACAO IS 'Data de movimentacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -99288,6 +103574,24 @@
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Hora de permanencia.</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN TRAMITA.VW_PERMANENCIA_SERVIDOR_PROCESSO.HOR_PERMANENCIA IS 'Hora de permanencia.';</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
